--- a/CH-126 Transformation.xlsx
+++ b/CH-126 Transformation.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5DEE105-74AC-4B51-96C9-F0B6264BB336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D5D9E6D-3BE5-44EB-856B-A3657727FC35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
+    <sheet name="EDA" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">EDA!$B$2:$D$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Original!$B$2:$D$26</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -38,8 +40,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="21">
   <si>
     <t>Question</t>
   </si>
@@ -972,8 +996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1395,4 +1419,516 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{677DA5E6-B2FD-4CAC-B9CE-06B03CBA8953}">
+  <dimension ref="A1:M27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.09765625" customWidth="1"/>
+    <col min="2" max="2" width="10.59765625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.296875" customWidth="1"/>
+    <col min="4" max="4" width="14.3984375" customWidth="1"/>
+    <col min="5" max="5" width="14.59765625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="11.19921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="23"/>
+      <c r="E1" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="I1" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="16">
+        <v>45293</v>
+      </c>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="9"/>
+    </row>
+    <row r="4" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="16">
+        <v>45301</v>
+      </c>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="9"/>
+    </row>
+    <row r="5" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="16">
+        <v>45303</v>
+      </c>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="9"/>
+    </row>
+    <row r="6" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="16">
+        <v>45298</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="9"/>
+    </row>
+    <row r="7" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="16">
+        <v>45304</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="16">
+        <v>45306</v>
+      </c>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+    </row>
+    <row r="9" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="16">
+        <v>45300</v>
+      </c>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+    </row>
+    <row r="10" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="16">
+        <v>45307</v>
+      </c>
+      <c r="I10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+    </row>
+    <row r="11" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="16">
+        <v>45314</v>
+      </c>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+    </row>
+    <row r="12" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="16">
+        <v>45310</v>
+      </c>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="16">
+        <v>45312</v>
+      </c>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="16">
+        <v>45315</v>
+      </c>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="16">
+        <v>45294</v>
+      </c>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="16">
+        <v>45296</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="16">
+        <v>45313</v>
+      </c>
+      <c r="M17" s="2"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="16">
+        <v>45297</v>
+      </c>
+      <c r="M18" s="2"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="16">
+        <v>45299</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="19">
+        <v>45305</v>
+      </c>
+      <c r="M20" s="2"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9" t="str" cm="1">
+        <f t="array" aca="1" ref="C22:F27" ca="1">_xlfn._xlws.SORT(_xlfn.DROP(_xlfn.REDUCE("",C3:C8,_xlfn.LAMBDA(_xlpm.a,_xlpm.v,_xlfn.VSTACK(_xlpm.a,_xlfn.HSTACK(OFFSET(_xlpm.v,0,-1),_xlfn.TEXTSPLIT(_xlpm.v,", "))))),1),1)</f>
+        <v>O001</v>
+      </c>
+      <c r="D22" s="9" t="str">
+        <f ca="1"/>
+        <v>2024/01/02</v>
+      </c>
+      <c r="E22" s="5" t="str">
+        <f ca="1"/>
+        <v>2024/01/10</v>
+      </c>
+      <c r="F22" t="str">
+        <f ca="1"/>
+        <v>2024/01/12</v>
+      </c>
+      <c r="M22" s="2"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="16" t="str">
+        <f ca="1"/>
+        <v>O002</v>
+      </c>
+      <c r="D23" s="9" t="str">
+        <f ca="1"/>
+        <v>2024/01/07</v>
+      </c>
+      <c r="E23" s="5" t="str">
+        <f ca="1"/>
+        <v>2024/01/13</v>
+      </c>
+      <c r="F23" t="str">
+        <f ca="1"/>
+        <v>2024/01/15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B24" s="9"/>
+      <c r="C24" s="16" t="str">
+        <f ca="1"/>
+        <v>O003</v>
+      </c>
+      <c r="D24" s="9" t="str">
+        <f ca="1"/>
+        <v>2024/01/09</v>
+      </c>
+      <c r="E24" s="5" t="str">
+        <f ca="1"/>
+        <v>2024/01/16</v>
+      </c>
+      <c r="F24" t="str">
+        <f ca="1"/>
+        <v>2024/01/23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B25" s="9"/>
+      <c r="C25" s="16" t="str">
+        <f ca="1"/>
+        <v>O004</v>
+      </c>
+      <c r="D25" s="9" t="str">
+        <f ca="1"/>
+        <v>2024/01/19</v>
+      </c>
+      <c r="E25" s="5" t="str">
+        <f ca="1"/>
+        <v>2024/01/21</v>
+      </c>
+      <c r="F25" t="str">
+        <f ca="1"/>
+        <v>2024/01/24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B26" s="9"/>
+      <c r="C26" s="16" t="str">
+        <f ca="1"/>
+        <v>O005</v>
+      </c>
+      <c r="D26" s="9" t="str">
+        <f ca="1"/>
+        <v>2024/01/03</v>
+      </c>
+      <c r="E26" s="5" t="str">
+        <f ca="1"/>
+        <v>2024/01/05</v>
+      </c>
+      <c r="F26" t="str">
+        <f ca="1"/>
+        <v>2024/01/22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C27" s="16" t="str">
+        <f ca="1"/>
+        <v>O006</v>
+      </c>
+      <c r="D27" t="str">
+        <f ca="1"/>
+        <v>2024/01/06</v>
+      </c>
+      <c r="E27" s="5" t="str">
+        <f ca="1"/>
+        <v>2024/01/08</v>
+      </c>
+      <c r="F27" t="str">
+        <f ca="1"/>
+        <v>2024/01/14</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="E1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/CH-126 Transformation.xlsx
+++ b/CH-126 Transformation.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D5D9E6D-3BE5-44EB-856B-A3657727FC35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F744FA-E790-42A6-B0EC-32AAD21CCA22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
     <sheet name="EDA" sheetId="2" r:id="rId2"/>
+    <sheet name="Alt1" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Alt1'!$B$2:$D$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">EDA!$B$2:$D$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Original!$B$2:$D$26</definedName>
   </definedNames>
@@ -63,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="21">
   <si>
     <t>Question</t>
   </si>
@@ -132,7 +134,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,6 +161,13 @@
       <name val="Century Gothic"/>
       <family val="1"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -378,7 +387,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -442,6 +451,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -992,6 +1004,48 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="648" row="8">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+  <wetp:taskpane dockstate="right" visibility="0" width="522" row="10">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{FC835702-D9D5-4E61-9546-87E7BE911C10}">
+  <we:reference id="wa200003696" version="1.3.0.0" store="en-US" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="wa200003696" version="1.3.0.0" store="" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties/>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+  <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
+      <we:customFunctionIdList>
+        <we:customFunctionIds>_xldudf_LABS_GENERATIVEAI</we:customFunctionIds>
+      </we:customFunctionIdList>
+    </a:ext>
+  </we:extLst>
+</we:webextension>
+</file>
+
+<file path=xl/webextensions/webextension2.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{792E94BB-13E7-4959-BC38-8D4B8BB7ABDC}">
+  <we:reference id="wa200001792" version="1.3.182.0" store="en-US" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="WA200001792" version="1.3.182.0" store="" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties/>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M26"/>
@@ -1425,8 +1479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{677DA5E6-B2FD-4CAC-B9CE-06B03CBA8953}">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView topLeftCell="A15" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1818,11 +1872,11 @@
         <f ca="1"/>
         <v>2024/01/02</v>
       </c>
-      <c r="E22" s="5" t="str">
+      <c r="E22" s="9" t="str">
         <f ca="1"/>
         <v>2024/01/10</v>
       </c>
-      <c r="F22" t="str">
+      <c r="F22" s="9" t="str">
         <f ca="1"/>
         <v>2024/01/12</v>
       </c>
@@ -1831,7 +1885,7 @@
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="9"/>
-      <c r="C23" s="16" t="str">
+      <c r="C23" s="9" t="str">
         <f ca="1"/>
         <v>O002</v>
       </c>
@@ -1839,18 +1893,18 @@
         <f ca="1"/>
         <v>2024/01/07</v>
       </c>
-      <c r="E23" s="5" t="str">
+      <c r="E23" s="9" t="str">
         <f ca="1"/>
         <v>2024/01/13</v>
       </c>
-      <c r="F23" t="str">
+      <c r="F23" s="9" t="str">
         <f ca="1"/>
         <v>2024/01/15</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B24" s="9"/>
-      <c r="C24" s="16" t="str">
+      <c r="C24" s="9" t="str">
         <f ca="1"/>
         <v>O003</v>
       </c>
@@ -1858,18 +1912,18 @@
         <f ca="1"/>
         <v>2024/01/09</v>
       </c>
-      <c r="E24" s="5" t="str">
+      <c r="E24" s="9" t="str">
         <f ca="1"/>
         <v>2024/01/16</v>
       </c>
-      <c r="F24" t="str">
+      <c r="F24" s="9" t="str">
         <f ca="1"/>
         <v>2024/01/23</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B25" s="9"/>
-      <c r="C25" s="16" t="str">
+      <c r="C25" s="9" t="str">
         <f ca="1"/>
         <v>O004</v>
       </c>
@@ -1877,18 +1931,18 @@
         <f ca="1"/>
         <v>2024/01/19</v>
       </c>
-      <c r="E25" s="5" t="str">
+      <c r="E25" s="9" t="str">
         <f ca="1"/>
         <v>2024/01/21</v>
       </c>
-      <c r="F25" t="str">
+      <c r="F25" s="9" t="str">
         <f ca="1"/>
         <v>2024/01/24</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B26" s="9"/>
-      <c r="C26" s="16" t="str">
+      <c r="C26" s="9" t="str">
         <f ca="1"/>
         <v>O005</v>
       </c>
@@ -1896,31 +1950,629 @@
         <f ca="1"/>
         <v>2024/01/03</v>
       </c>
-      <c r="E26" s="5" t="str">
+      <c r="E26" s="9" t="str">
         <f ca="1"/>
         <v>2024/01/05</v>
       </c>
-      <c r="F26" t="str">
+      <c r="F26" s="9" t="str">
         <f ca="1"/>
         <v>2024/01/22</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C27" s="16" t="str">
+      <c r="C27" s="9" t="str">
         <f ca="1"/>
         <v>O006</v>
       </c>
-      <c r="D27" t="str">
+      <c r="D27" s="9" t="str">
         <f ca="1"/>
         <v>2024/01/06</v>
       </c>
-      <c r="E27" s="5" t="str">
+      <c r="E27" s="9" t="str">
         <f ca="1"/>
         <v>2024/01/08</v>
       </c>
-      <c r="F27" t="str">
+      <c r="F27" s="9" t="str">
         <f ca="1"/>
         <v>2024/01/14</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="E1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F5EC0EF-4DDC-432E-8A0C-098C1F991CDC}">
+  <dimension ref="A1:M39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.09765625" customWidth="1"/>
+    <col min="2" max="2" width="10.59765625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="27.09765625" customWidth="1"/>
+    <col min="4" max="4" width="10.3984375" customWidth="1"/>
+    <col min="5" max="5" width="8.69921875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="8.8984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="23"/>
+      <c r="E1" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="I1" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="16">
+        <v>45293</v>
+      </c>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="9"/>
+    </row>
+    <row r="4" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="16">
+        <v>45301</v>
+      </c>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="9"/>
+    </row>
+    <row r="5" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="16">
+        <v>45303</v>
+      </c>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="9"/>
+    </row>
+    <row r="6" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="16">
+        <v>45298</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="9"/>
+    </row>
+    <row r="7" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="16">
+        <v>45304</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="16">
+        <v>45306</v>
+      </c>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+    </row>
+    <row r="9" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="16">
+        <v>45300</v>
+      </c>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+    </row>
+    <row r="10" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="16">
+        <v>45307</v>
+      </c>
+      <c r="I10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+    </row>
+    <row r="11" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="16">
+        <v>45314</v>
+      </c>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+    </row>
+    <row r="12" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="16">
+        <v>45310</v>
+      </c>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="16">
+        <v>45312</v>
+      </c>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="16">
+        <v>45315</v>
+      </c>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="16">
+        <v>45294</v>
+      </c>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="16">
+        <v>45296</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="16">
+        <v>45313</v>
+      </c>
+      <c r="M17" s="2"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="16">
+        <v>45297</v>
+      </c>
+      <c r="M18" s="2"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="16">
+        <v>45299</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="19">
+        <v>45305</v>
+      </c>
+      <c r="M20" s="2"/>
+    </row>
+    <row r="21" spans="1:13" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+    </row>
+    <row r="22" spans="1:13" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="26" t="str" cm="1">
+        <f t="array" ref="B22:D39">_xlfn.LET(_xlpm.r,--_xlfn.REGEXREPLACE(C3:C8,"([\/\d]+), ((?1)), ((?1))","$"&amp;{1,2,3}),_xlfn._xlws.SORT(_xlfn.HSTACK(_xlfn.TOCOL(B3:B8&amp;T(_xlpm.r)),_xlfn.TOCOL({"Registeration","Evaluation","Approved"}&amp;T(_xlpm.r)),_xlfn.TOCOL(_xlpm.r))))</f>
+        <v>O001</v>
+      </c>
+      <c r="C22" s="9" t="str">
+        <v>Registeration</v>
+      </c>
+      <c r="D22" s="9">
+        <v>45293</v>
+      </c>
+      <c r="M22" s="2"/>
+    </row>
+    <row r="23" spans="1:13" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="9" t="str">
+        <v>O001</v>
+      </c>
+      <c r="C23" s="9" t="str">
+        <v>Evaluation</v>
+      </c>
+      <c r="D23" s="9">
+        <v>45301</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B24" s="9" t="str">
+        <v>O001</v>
+      </c>
+      <c r="C24" s="9" t="str">
+        <v>Approved</v>
+      </c>
+      <c r="D24" s="9">
+        <v>45303</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B25" s="9" t="str">
+        <v>O002</v>
+      </c>
+      <c r="C25" s="9" t="str">
+        <v>Registeration</v>
+      </c>
+      <c r="D25" s="9">
+        <v>45298</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B26" s="9" t="str">
+        <v>O002</v>
+      </c>
+      <c r="C26" s="9" t="str">
+        <v>Evaluation</v>
+      </c>
+      <c r="D26" s="9">
+        <v>45304</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B27" s="4" t="str">
+        <v>O002</v>
+      </c>
+      <c r="C27" t="str">
+        <v>Approved</v>
+      </c>
+      <c r="D27">
+        <v>45306</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B28" s="4" t="str">
+        <v>O003</v>
+      </c>
+      <c r="C28" t="str">
+        <v>Registeration</v>
+      </c>
+      <c r="D28">
+        <v>45300</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B29" s="4" t="str">
+        <v>O003</v>
+      </c>
+      <c r="C29" t="str">
+        <v>Evaluation</v>
+      </c>
+      <c r="D29">
+        <v>45307</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B30" s="4" t="str">
+        <v>O003</v>
+      </c>
+      <c r="C30" t="str">
+        <v>Approved</v>
+      </c>
+      <c r="D30">
+        <v>45314</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B31" s="4" t="str">
+        <v>O004</v>
+      </c>
+      <c r="C31" t="str">
+        <v>Registeration</v>
+      </c>
+      <c r="D31">
+        <v>45310</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B32" s="4" t="str">
+        <v>O004</v>
+      </c>
+      <c r="C32" t="str">
+        <v>Evaluation</v>
+      </c>
+      <c r="D32">
+        <v>45312</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="4" t="str">
+        <v>O004</v>
+      </c>
+      <c r="C33" t="str">
+        <v>Approved</v>
+      </c>
+      <c r="D33">
+        <v>45315</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="4" t="str">
+        <v>O005</v>
+      </c>
+      <c r="C34" t="str">
+        <v>Registeration</v>
+      </c>
+      <c r="D34">
+        <v>45294</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="4" t="str">
+        <v>O005</v>
+      </c>
+      <c r="C35" t="str">
+        <v>Evaluation</v>
+      </c>
+      <c r="D35">
+        <v>45296</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="4" t="str">
+        <v>O005</v>
+      </c>
+      <c r="C36" t="str">
+        <v>Approved</v>
+      </c>
+      <c r="D36">
+        <v>45313</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="4" t="str">
+        <v>O006</v>
+      </c>
+      <c r="C37" t="str">
+        <v>Registeration</v>
+      </c>
+      <c r="D37">
+        <v>45297</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" s="4" t="str">
+        <v>O006</v>
+      </c>
+      <c r="C38" t="str">
+        <v>Evaluation</v>
+      </c>
+      <c r="D38">
+        <v>45299</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" s="4" t="str">
+        <v>O006</v>
+      </c>
+      <c r="C39" t="str">
+        <v>Approved</v>
+      </c>
+      <c r="D39">
+        <v>45305</v>
       </c>
     </row>
   </sheetData>

--- a/CH-126 Transformation.xlsx
+++ b/CH-126 Transformation.xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F744FA-E790-42A6-B0EC-32AAD21CCA22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF1E21C9-330E-4873-8ED7-E280F16EF289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
     <sheet name="EDA" sheetId="2" r:id="rId2"/>
     <sheet name="Alt1" sheetId="3" r:id="rId3"/>
+    <sheet name="Alt2" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Alt1'!$B$2:$D$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Alt2'!$B$2:$D$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">EDA!$B$2:$D$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Original!$B$2:$D$26</definedName>
   </definedNames>
@@ -65,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="22">
   <si>
     <t>Question</t>
   </si>
@@ -129,12 +131,15 @@
   <si>
     <t>https://www.linkedin.com/feed/update/urn:li:activity:7250248739192254465/</t>
   </si>
+  <si>
+    <t>Nice use of broadcasting</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,6 +174,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Aptos Mono"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -384,10 +396,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -440,6 +453,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -452,11 +468,10 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Explanatory Text" xfId="1" builtinId="53"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -687,6 +702,264 @@
         <a:xfrm>
           <a:off x="3123194" y="2698906"/>
           <a:ext cx="333652" cy="657105"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-AU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>256565</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>21981</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>932721</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>162603</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Arrow: Right 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E041EF3-CC8A-470B-8F37-183B4DAFBA3D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="1480642" y="1350604"/>
+          <a:ext cx="315882" cy="676156"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-AU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>123096</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle: Rounded Corners 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{458DE74E-D86C-43C5-9705-17CD3C88D7B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="123096" y="1859280"/>
+          <a:ext cx="2985864" cy="2103120"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Challenge 126:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Transformation!</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-AU" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>The order process consists of three steps: registration, evaluation, and approval. The order dates are provided in a single cell. Transform the table into the desired result table.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1925</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>127156</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>335577</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>22261</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Arrow: Right 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47B0A935-2757-48DB-9774-A8CF07A72491}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3110885" y="2512216"/>
+          <a:ext cx="333652" cy="596145"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -1006,7 +1279,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="648" row="8">
+  <wetp:taskpane dockstate="right" visibility="0" width="976" row="8">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
   <wetp:taskpane dockstate="right" visibility="0" width="522" row="10">
@@ -1025,6 +1298,9 @@
   <we:bindings/>
   <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
   <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{D87F86FE-615C-45B5-9D79-34F1136793EB}">
+      <we:containsCustomFunctions/>
+    </a:ext>
     <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
       <we:customFunctionIdList>
         <we:customFunctionIds>_xldudf_LABS_GENERATIVEAI</we:customFunctionIds>
@@ -1066,15 +1342,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="E1" s="24" t="s">
+      <c r="C1" s="24"/>
+      <c r="E1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
       <c r="I1" s="7" t="s">
         <v>20</v>
       </c>
@@ -1495,15 +1771,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="E1" s="24" t="s">
+      <c r="C1" s="24"/>
+      <c r="E1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
       <c r="I1" s="7" t="s">
         <v>20</v>
       </c>
@@ -1991,8 +2267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F5EC0EF-4DDC-432E-8A0C-098C1F991CDC}">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2007,15 +2283,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="E1" s="24" t="s">
+      <c r="C1" s="24"/>
+      <c r="E1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
       <c r="I1" s="7" t="s">
         <v>20</v>
       </c>
@@ -2375,12 +2651,25 @@
     </row>
     <row r="22" spans="1:13" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="26" t="str" cm="1">
-        <f t="array" ref="B22:D39">_xlfn.LET(_xlpm.r,--_xlfn.REGEXREPLACE(C3:C8,"([\/\d]+), ((?1)), ((?1))","$"&amp;{1,2,3}),_xlfn._xlws.SORT(_xlfn.HSTACK(_xlfn.TOCOL(B3:B8&amp;T(_xlpm.r)),_xlfn.TOCOL({"Registeration","Evaluation","Approved"}&amp;T(_xlpm.r)),_xlfn.TOCOL(_xlpm.r))))</f>
+      <c r="B22" s="22" t="str" cm="1">
+        <f t="array" ref="B22:D39">_xlfn.LET(
+    _xlpm.r, --_xlfn.REGEXREPLACE(
+        C3:C8,
+        "([\/\d]+), ((?1)), ((?1))",
+        "$" &amp; {1,2,3}
+    ),
+    _xlfn._xlws.SORT(
+        _xlfn.HSTACK(
+            _xlfn.TOCOL(B3:B8 &amp; T(_xlpm.r)),
+            _xlfn.TOCOL({"Registration","Evaluation","Approved"} &amp; T(_xlpm.r)),
+            _xlfn.TOCOL(_xlpm.r)
+        )
+    )
+)</f>
         <v>O001</v>
       </c>
       <c r="C22" s="9" t="str">
-        <v>Registeration</v>
+        <v>Registration</v>
       </c>
       <c r="D22" s="9">
         <v>45293</v>
@@ -2415,7 +2704,7 @@
         <v>O002</v>
       </c>
       <c r="C25" s="9" t="str">
-        <v>Registeration</v>
+        <v>Registration</v>
       </c>
       <c r="D25" s="9">
         <v>45298</v>
@@ -2448,7 +2737,7 @@
         <v>O003</v>
       </c>
       <c r="C28" t="str">
-        <v>Registeration</v>
+        <v>Registration</v>
       </c>
       <c r="D28">
         <v>45300</v>
@@ -2481,7 +2770,7 @@
         <v>O004</v>
       </c>
       <c r="C31" t="str">
-        <v>Registeration</v>
+        <v>Registration</v>
       </c>
       <c r="D31">
         <v>45310</v>
@@ -2514,7 +2803,7 @@
         <v>O005</v>
       </c>
       <c r="C34" t="str">
-        <v>Registeration</v>
+        <v>Registration</v>
       </c>
       <c r="D34">
         <v>45294</v>
@@ -2547,7 +2836,7 @@
         <v>O006</v>
       </c>
       <c r="C37" t="str">
-        <v>Registeration</v>
+        <v>Registration</v>
       </c>
       <c r="D37">
         <v>45297</v>
@@ -2583,4 +2872,691 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BB906E4-F4ED-4118-9939-02F75E883835}">
+  <dimension ref="A1:M40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.09765625" customWidth="1"/>
+    <col min="2" max="2" width="10.59765625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="27.09765625" customWidth="1"/>
+    <col min="4" max="4" width="4.59765625" customWidth="1"/>
+    <col min="5" max="5" width="8.69921875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="8.8984375" customWidth="1"/>
+    <col min="9" max="9" width="27.8984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="E1" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="I1" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="16">
+        <v>45293</v>
+      </c>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="9"/>
+    </row>
+    <row r="4" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="16">
+        <v>45301</v>
+      </c>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="9"/>
+    </row>
+    <row r="5" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="16">
+        <v>45303</v>
+      </c>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="9"/>
+    </row>
+    <row r="6" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="16">
+        <v>45298</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="9"/>
+    </row>
+    <row r="7" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="16">
+        <v>45304</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="16">
+        <v>45306</v>
+      </c>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+    </row>
+    <row r="9" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="16">
+        <v>45300</v>
+      </c>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+    </row>
+    <row r="10" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="16">
+        <v>45307</v>
+      </c>
+      <c r="I10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+    </row>
+    <row r="11" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="16">
+        <v>45314</v>
+      </c>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+    </row>
+    <row r="12" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="16">
+        <v>45310</v>
+      </c>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="16">
+        <v>45312</v>
+      </c>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="16">
+        <v>45315</v>
+      </c>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="16">
+        <v>45294</v>
+      </c>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="16">
+        <v>45296</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="16">
+        <v>45313</v>
+      </c>
+      <c r="M17" s="2"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="16">
+        <v>45297</v>
+      </c>
+      <c r="M18" s="2"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="16">
+        <v>45299</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="19">
+        <v>45305</v>
+      </c>
+      <c r="M20" s="2"/>
+    </row>
+    <row r="21" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="I21" s="27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="M22" s="2"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="5" t="str" cm="1">
+        <f t="array" ref="E23:G40">_xlfn.LET(
+    _xlpm.t, _xlfn.TEXTSPLIT(
+        _xlfn.TEXTJOIN(
+            "|",
+            ,
+            B3:B8 &amp; {" Registration "," Evaluation "," Approved "} &amp;
+                _xlfn.TEXTSPLIT(_xlfn.TEXTAFTER(", " &amp; C3:C8, ", ", {1,2,3}), ", ")
+        ),
+        " ",
+        "|"
+    ),
+    _xlfn._xlws.SORT(IFERROR(0 + _xlpm.t, _xlpm.t))
+)</f>
+        <v>O001</v>
+      </c>
+      <c r="F23" s="5" t="str">
+        <v>Registration</v>
+      </c>
+      <c r="G23" s="5">
+        <v>45293</v>
+      </c>
+      <c r="I23" t="str" cm="1">
+        <f t="array" ref="I23:K28">B3:B8 &amp; {" Registration "," Evaluation "," Approved "} &amp;_xlfn.TEXTSPLIT(_xlfn.TEXTAFTER(", "&amp;C3:C8,", ",{1,2,3}),", ")</f>
+        <v>O001 Registration 2024/01/02</v>
+      </c>
+      <c r="J23" t="str">
+        <v>O001 Evaluation 2024/01/10</v>
+      </c>
+      <c r="K23" t="str">
+        <v>O001 Approved 2024/01/12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="5" t="str">
+        <v>O001</v>
+      </c>
+      <c r="F24" s="5" t="str">
+        <v>Evaluation</v>
+      </c>
+      <c r="G24" s="5">
+        <v>45301</v>
+      </c>
+      <c r="I24" t="str">
+        <v>O005 Registration 2024/01/03</v>
+      </c>
+      <c r="J24" t="str">
+        <v>O005 Evaluation 2024/01/05</v>
+      </c>
+      <c r="K24" t="str">
+        <v>O005 Approved 2024/01/22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="5" t="str">
+        <v>O001</v>
+      </c>
+      <c r="F25" s="5" t="str">
+        <v>Approved</v>
+      </c>
+      <c r="G25" s="5">
+        <v>45303</v>
+      </c>
+      <c r="I25" t="str">
+        <v>O006 Registration 2024/01/06</v>
+      </c>
+      <c r="J25" t="str">
+        <v>O006 Evaluation 2024/01/08</v>
+      </c>
+      <c r="K25" t="str">
+        <v>O006 Approved 2024/01/14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="5" t="str">
+        <v>O002</v>
+      </c>
+      <c r="F26" s="5" t="str">
+        <v>Registration</v>
+      </c>
+      <c r="G26" s="5">
+        <v>45298</v>
+      </c>
+      <c r="I26" t="str">
+        <v>O002 Registration 2024/01/07</v>
+      </c>
+      <c r="J26" t="str">
+        <v>O002 Evaluation 2024/01/13</v>
+      </c>
+      <c r="K26" t="str">
+        <v>O002 Approved 2024/01/15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E27" s="5" t="str">
+        <v>O002</v>
+      </c>
+      <c r="F27" s="5" t="str">
+        <v>Evaluation</v>
+      </c>
+      <c r="G27" s="5">
+        <v>45304</v>
+      </c>
+      <c r="I27" t="str">
+        <v>O003 Registration 2024/01/09</v>
+      </c>
+      <c r="J27" t="str">
+        <v>O003 Evaluation 2024/01/16</v>
+      </c>
+      <c r="K27" t="str">
+        <v>O003 Approved 2024/01/23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E28" s="5" t="str">
+        <v>O002</v>
+      </c>
+      <c r="F28" s="5" t="str">
+        <v>Approved</v>
+      </c>
+      <c r="G28" s="5">
+        <v>45306</v>
+      </c>
+      <c r="I28" t="str">
+        <v>O004 Registration 2024/01/19</v>
+      </c>
+      <c r="J28" t="str">
+        <v>O004 Evaluation 2024/01/21</v>
+      </c>
+      <c r="K28" t="str">
+        <v>O004 Approved 2024/01/24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E29" s="5" t="str">
+        <v>O003</v>
+      </c>
+      <c r="F29" s="5" t="str">
+        <v>Registration</v>
+      </c>
+      <c r="G29" s="5">
+        <v>45300</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E30" s="5" t="str">
+        <v>O003</v>
+      </c>
+      <c r="F30" s="5" t="str">
+        <v>Evaluation</v>
+      </c>
+      <c r="G30" s="5">
+        <v>45307</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E31" s="5" t="str">
+        <v>O003</v>
+      </c>
+      <c r="F31" s="5" t="str">
+        <v>Approved</v>
+      </c>
+      <c r="G31" s="5">
+        <v>45314</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E32" s="5" t="str">
+        <v>O004</v>
+      </c>
+      <c r="F32" s="5" t="str">
+        <v>Registration</v>
+      </c>
+      <c r="G32" s="5">
+        <v>45310</v>
+      </c>
+    </row>
+    <row r="33" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E33" s="5" t="str">
+        <v>O004</v>
+      </c>
+      <c r="F33" s="5" t="str">
+        <v>Evaluation</v>
+      </c>
+      <c r="G33" s="5">
+        <v>45312</v>
+      </c>
+    </row>
+    <row r="34" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E34" s="5" t="str">
+        <v>O004</v>
+      </c>
+      <c r="F34" s="5" t="str">
+        <v>Approved</v>
+      </c>
+      <c r="G34" s="5">
+        <v>45315</v>
+      </c>
+    </row>
+    <row r="35" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E35" s="5" t="str">
+        <v>O005</v>
+      </c>
+      <c r="F35" s="5" t="str">
+        <v>Registration</v>
+      </c>
+      <c r="G35" s="5">
+        <v>45294</v>
+      </c>
+    </row>
+    <row r="36" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E36" s="5" t="str">
+        <v>O005</v>
+      </c>
+      <c r="F36" s="5" t="str">
+        <v>Evaluation</v>
+      </c>
+      <c r="G36" s="5">
+        <v>45296</v>
+      </c>
+    </row>
+    <row r="37" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E37" s="5" t="str">
+        <v>O005</v>
+      </c>
+      <c r="F37" s="5" t="str">
+        <v>Approved</v>
+      </c>
+      <c r="G37" s="5">
+        <v>45313</v>
+      </c>
+    </row>
+    <row r="38" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E38" s="5" t="str">
+        <v>O006</v>
+      </c>
+      <c r="F38" s="5" t="str">
+        <v>Registration</v>
+      </c>
+      <c r="G38" s="5">
+        <v>45297</v>
+      </c>
+    </row>
+    <row r="39" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E39" s="5" t="str">
+        <v>O006</v>
+      </c>
+      <c r="F39" s="5" t="str">
+        <v>Evaluation</v>
+      </c>
+      <c r="G39" s="5">
+        <v>45299</v>
+      </c>
+    </row>
+    <row r="40" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E40" s="5" t="str">
+        <v>O006</v>
+      </c>
+      <c r="F40" s="5" t="str">
+        <v>Approved</v>
+      </c>
+      <c r="G40" s="5">
+        <v>45305</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="E1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/CH-126 Transformation.xlsx
+++ b/CH-126 Transformation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF1E21C9-330E-4873-8ED7-E280F16EF289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73121945-E1D6-4140-8D25-2D384D3E4898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="25">
   <si>
     <t>Question</t>
   </si>
@@ -133,6 +133,15 @@
   </si>
   <si>
     <t>Nice use of broadcasting</t>
+  </si>
+  <si>
+    <t>REGEXREPLACE(TEXT,pattern,replacement,occurrence,case_sensitivity)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "([\/\d]+), ((?1)), ((?1))"</t>
+  </si>
+  <si>
+    <t>The ?1 means to refer back to the first capture group.</t>
   </si>
 </sst>
 </file>
@@ -2267,8 +2276,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F5EC0EF-4DDC-432E-8A0C-098C1F991CDC}">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="C21" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2674,6 +2683,9 @@
       <c r="D22" s="9">
         <v>45293</v>
       </c>
+      <c r="F22" t="s">
+        <v>22</v>
+      </c>
       <c r="M22" s="2"/>
     </row>
     <row r="23" spans="1:13" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -2698,6 +2710,9 @@
       <c r="D24" s="9">
         <v>45303</v>
       </c>
+      <c r="F24" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B25" s="9" t="str">
@@ -2708,6 +2723,9 @@
       </c>
       <c r="D25" s="9">
         <v>45298</v>
+      </c>
+      <c r="F25" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -2878,8 +2896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BB906E4-F4ED-4118-9939-02F75E883835}">
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView topLeftCell="A21" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/CH-126 Transformation.xlsx
+++ b/CH-126 Transformation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73121945-E1D6-4140-8D25-2D384D3E4898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13830618-3B34-4175-BFA1-94AA3E036804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="37">
   <si>
     <t>Question</t>
   </si>
@@ -142,6 +142,42 @@
   </si>
   <si>
     <t>The ?1 means to refer back to the first capture group.</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>zz</t>
+  </si>
+  <si>
+    <t>yy</t>
+  </si>
+  <si>
+    <t>ww</t>
   </si>
 </sst>
 </file>
@@ -465,6 +501,7 @@
     <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -477,7 +514,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53"/>
@@ -1351,15 +1387,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="E1" s="25" t="s">
+      <c r="C1" s="25"/>
+      <c r="E1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
       <c r="I1" s="7" t="s">
         <v>20</v>
       </c>
@@ -1780,15 +1816,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="E1" s="25" t="s">
+      <c r="C1" s="25"/>
+      <c r="E1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
       <c r="I1" s="7" t="s">
         <v>20</v>
       </c>
@@ -2276,7 +2312,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F5EC0EF-4DDC-432E-8A0C-098C1F991CDC}">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C21" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="C24" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
@@ -2292,15 +2328,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="E1" s="25" t="s">
+      <c r="C1" s="25"/>
+      <c r="E1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
       <c r="I1" s="7" t="s">
         <v>20</v>
       </c>
@@ -2894,10 +2930,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BB906E4-F4ED-4118-9939-02F75E883835}">
-  <dimension ref="A1:M40"/>
+  <dimension ref="A1:M58"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="B46" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I56" sqref="I56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2913,15 +2949,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="E1" s="25" t="s">
+      <c r="C1" s="25"/>
+      <c r="E1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
       <c r="I1" s="7" t="s">
         <v>20</v>
       </c>
@@ -3278,7 +3314,7 @@
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
-      <c r="I21" s="27" t="s">
+      <c r="I21" s="23" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3480,7 +3516,7 @@
         <v>45310</v>
       </c>
     </row>
-    <row r="33" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E33" s="5" t="str">
         <v>O004</v>
       </c>
@@ -3491,7 +3527,7 @@
         <v>45312</v>
       </c>
     </row>
-    <row r="34" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E34" s="5" t="str">
         <v>O004</v>
       </c>
@@ -3502,7 +3538,7 @@
         <v>45315</v>
       </c>
     </row>
-    <row r="35" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E35" s="5" t="str">
         <v>O005</v>
       </c>
@@ -3513,7 +3549,7 @@
         <v>45294</v>
       </c>
     </row>
-    <row r="36" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E36" s="5" t="str">
         <v>O005</v>
       </c>
@@ -3524,7 +3560,7 @@
         <v>45296</v>
       </c>
     </row>
-    <row r="37" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E37" s="5" t="str">
         <v>O005</v>
       </c>
@@ -3535,7 +3571,7 @@
         <v>45313</v>
       </c>
     </row>
-    <row r="38" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E38" s="5" t="str">
         <v>O006</v>
       </c>
@@ -3546,7 +3582,7 @@
         <v>45297</v>
       </c>
     </row>
-    <row r="39" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E39" s="5" t="str">
         <v>O006</v>
       </c>
@@ -3557,7 +3593,7 @@
         <v>45299</v>
       </c>
     </row>
-    <row r="40" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E40" s="5" t="str">
         <v>O006</v>
       </c>
@@ -3566,6 +3602,133 @@
       </c>
       <c r="G40" s="5">
         <v>45305</v>
+      </c>
+    </row>
+    <row r="41" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="J41" t="s">
+        <v>34</v>
+      </c>
+      <c r="K41" t="s">
+        <v>25</v>
+      </c>
+      <c r="L41" t="s">
+        <v>26</v>
+      </c>
+      <c r="M41" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="J42" t="s">
+        <v>35</v>
+      </c>
+      <c r="K42" t="s">
+        <v>28</v>
+      </c>
+      <c r="L42" t="s">
+        <v>29</v>
+      </c>
+      <c r="M42" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="J43" t="s">
+        <v>36</v>
+      </c>
+      <c r="K43" t="s">
+        <v>31</v>
+      </c>
+      <c r="L43" t="s">
+        <v>32</v>
+      </c>
+      <c r="M43" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="J45" t="str" cm="1">
+        <f t="array" ref="J45:L47">_xlfn.SINGLE(+J41:J43)&amp;K41:M43</f>
+        <v>zza</v>
+      </c>
+      <c r="K45" t="str">
+        <v>zzb</v>
+      </c>
+      <c r="L45" t="str">
+        <v>zzc</v>
+      </c>
+    </row>
+    <row r="46" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="J46" t="str">
+        <v>zzd</v>
+      </c>
+      <c r="K46" t="str">
+        <v>zze</v>
+      </c>
+      <c r="L46" t="str">
+        <v>zzf</v>
+      </c>
+    </row>
+    <row r="47" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="J47" t="str">
+        <v>zzg</v>
+      </c>
+      <c r="K47" t="str">
+        <v>zzh</v>
+      </c>
+      <c r="L47" t="str">
+        <v>zzi</v>
+      </c>
+    </row>
+    <row r="49" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H49" t="str" cm="1">
+        <f t="array" ref="H49:H58">_xlfn.REDUCE("",K41:M43,_xlfn.LAMBDA(_xlpm.a,_xlpm.v,_xlfn.VSTACK(_xlpm.a,_xlfn.SINGLE(+J43:_xlpm.v)&amp;_xlpm.v)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H50" t="str">
+        <v>zza</v>
+      </c>
+    </row>
+    <row r="51" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H51" t="str">
+        <v>zzb</v>
+      </c>
+    </row>
+    <row r="52" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H52" t="str">
+        <v>zzc</v>
+      </c>
+    </row>
+    <row r="53" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H53" t="str">
+        <v>yyd</v>
+      </c>
+    </row>
+    <row r="54" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H54" t="str">
+        <v>yye</v>
+      </c>
+    </row>
+    <row r="55" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H55" t="str">
+        <v>yyf</v>
+      </c>
+    </row>
+    <row r="56" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H56" t="str">
+        <v>wwg</v>
+      </c>
+    </row>
+    <row r="57" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H57" t="str">
+        <v>wwh</v>
+      </c>
+    </row>
+    <row r="58" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H58" t="str">
+        <v>wwi</v>
       </c>
     </row>
   </sheetData>

--- a/CH-126 Transformation.xlsx
+++ b/CH-126 Transformation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13830618-3B34-4175-BFA1-94AA3E036804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D5929D-2DAA-4E85-A9CC-AF350DA4D324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="42">
   <si>
     <t>Question</t>
   </si>
@@ -178,13 +178,28 @@
   </si>
   <si>
     <t>ww</t>
+  </si>
+  <si>
+    <t>This is what was done to repeat the front number</t>
+  </si>
+  <si>
+    <t>What did I master in this drill?</t>
+  </si>
+  <si>
+    <t>I finally figure out how to use the intersect operator to fill a column</t>
+  </si>
+  <si>
+    <t>I see that the instance parameter can be an array</t>
+  </si>
+  <si>
+    <t>You can use broadcasting to repeat a string across variables.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,6 +241,13 @@
       <name val="Aptos Mono"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Mono"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -441,11 +463,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -514,9 +537,13 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1800,8 +1827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{677DA5E6-B2FD-4CAC-B9CE-06B03CBA8953}">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2930,10 +2957,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BB906E4-F4ED-4118-9939-02F75E883835}">
-  <dimension ref="A1:M58"/>
+  <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B46" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I56" sqref="I56"/>
+    <sheetView tabSelected="1" topLeftCell="B40" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3516,7 +3543,7 @@
         <v>45310</v>
       </c>
     </row>
-    <row r="33" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E33" s="5" t="str">
         <v>O004</v>
       </c>
@@ -3527,7 +3554,7 @@
         <v>45312</v>
       </c>
     </row>
-    <row r="34" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E34" s="5" t="str">
         <v>O004</v>
       </c>
@@ -3538,7 +3565,7 @@
         <v>45315</v>
       </c>
     </row>
-    <row r="35" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E35" s="5" t="str">
         <v>O005</v>
       </c>
@@ -3549,7 +3576,7 @@
         <v>45294</v>
       </c>
     </row>
-    <row r="36" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E36" s="5" t="str">
         <v>O005</v>
       </c>
@@ -3560,7 +3587,7 @@
         <v>45296</v>
       </c>
     </row>
-    <row r="37" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E37" s="5" t="str">
         <v>O005</v>
       </c>
@@ -3571,7 +3598,7 @@
         <v>45313</v>
       </c>
     </row>
-    <row r="38" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E38" s="5" t="str">
         <v>O006</v>
       </c>
@@ -3582,7 +3609,7 @@
         <v>45297</v>
       </c>
     </row>
-    <row r="39" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E39" s="5" t="str">
         <v>O006</v>
       </c>
@@ -3593,7 +3620,7 @@
         <v>45299</v>
       </c>
     </row>
-    <row r="40" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E40" s="5" t="str">
         <v>O006</v>
       </c>
@@ -3604,7 +3631,7 @@
         <v>45305</v>
       </c>
     </row>
-    <row r="41" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="J41" t="s">
         <v>34</v>
       </c>
@@ -3618,7 +3645,10 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B42" s="28" t="s">
+        <v>38</v>
+      </c>
       <c r="J42" t="s">
         <v>35</v>
       </c>
@@ -3632,7 +3662,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="J43" t="s">
         <v>36</v>
       </c>
@@ -3646,7 +3676,21 @@
         <v>33</v>
       </c>
     </row>
-    <row r="45" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B44" s="4">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B45" s="4">
+        <v>2</v>
+      </c>
+      <c r="C45" t="s">
+        <v>40</v>
+      </c>
       <c r="J45" t="str" cm="1">
         <f t="array" ref="J45:L47">_xlfn.SINGLE(+J41:J43)&amp;K41:M43</f>
         <v>zza</v>
@@ -3658,7 +3702,13 @@
         <v>zzc</v>
       </c>
     </row>
-    <row r="46" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B46" s="4">
+        <v>3</v>
+      </c>
+      <c r="C46" t="s">
+        <v>41</v>
+      </c>
       <c r="J46" t="str">
         <v>zzd</v>
       </c>
@@ -3669,7 +3719,7 @@
         <v>zzf</v>
       </c>
     </row>
-    <row r="47" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="J47" t="str">
         <v>zzg</v>
       </c>
@@ -3680,55 +3730,90 @@
         <v>zzi</v>
       </c>
     </row>
-    <row r="49" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H49" t="str" cm="1">
-        <f t="array" ref="H49:H58">_xlfn.REDUCE("",K41:M43,_xlfn.LAMBDA(_xlpm.a,_xlpm.v,_xlfn.VSTACK(_xlpm.a,_xlfn.SINGLE(+J43:_xlpm.v)&amp;_xlpm.v)))</f>
+    <row r="49" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F49" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="51" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="H51" t="str" cm="1">
+        <f t="array" ref="H51:I60">_xlfn.REDUCE("",K41:M43,_xlfn.LAMBDA(_xlpm.a,_xlpm.v,_xlfn.VSTACK(_xlpm.a,_xlfn.TEXTSPLIT(_xlfn.SINGLE(+J43:_xlpm.v)&amp;"|"&amp;_xlpm.v,"|"))))</f>
         <v/>
       </c>
-    </row>
-    <row r="50" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H50" t="str">
-        <v>zza</v>
-      </c>
-    </row>
-    <row r="51" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H51" t="str">
-        <v>zzb</v>
-      </c>
-    </row>
-    <row r="52" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="I51" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="52" spans="6:9" x14ac:dyDescent="0.25">
       <c r="H52" t="str">
-        <v>zzc</v>
-      </c>
-    </row>
-    <row r="53" spans="8:8" x14ac:dyDescent="0.25">
+        <v>zz</v>
+      </c>
+      <c r="I52" t="str">
+        <v>a</v>
+      </c>
+    </row>
+    <row r="53" spans="6:9" x14ac:dyDescent="0.25">
       <c r="H53" t="str">
-        <v>yyd</v>
-      </c>
-    </row>
-    <row r="54" spans="8:8" x14ac:dyDescent="0.25">
+        <v>zz</v>
+      </c>
+      <c r="I53" t="str">
+        <v>b</v>
+      </c>
+    </row>
+    <row r="54" spans="6:9" x14ac:dyDescent="0.25">
       <c r="H54" t="str">
-        <v>yye</v>
-      </c>
-    </row>
-    <row r="55" spans="8:8" x14ac:dyDescent="0.25">
+        <v>zz</v>
+      </c>
+      <c r="I54" t="str">
+        <v>c</v>
+      </c>
+    </row>
+    <row r="55" spans="6:9" x14ac:dyDescent="0.25">
       <c r="H55" t="str">
-        <v>yyf</v>
-      </c>
-    </row>
-    <row r="56" spans="8:8" x14ac:dyDescent="0.25">
+        <v>yy</v>
+      </c>
+      <c r="I55" t="str">
+        <v>d</v>
+      </c>
+    </row>
+    <row r="56" spans="6:9" x14ac:dyDescent="0.25">
       <c r="H56" t="str">
-        <v>wwg</v>
-      </c>
-    </row>
-    <row r="57" spans="8:8" x14ac:dyDescent="0.25">
+        <v>yy</v>
+      </c>
+      <c r="I56" t="str">
+        <v>e</v>
+      </c>
+    </row>
+    <row r="57" spans="6:9" x14ac:dyDescent="0.25">
       <c r="H57" t="str">
-        <v>wwh</v>
-      </c>
-    </row>
-    <row r="58" spans="8:8" x14ac:dyDescent="0.25">
+        <v>yy</v>
+      </c>
+      <c r="I57" t="str">
+        <v>f</v>
+      </c>
+    </row>
+    <row r="58" spans="6:9" x14ac:dyDescent="0.25">
       <c r="H58" t="str">
-        <v>wwi</v>
+        <v>ww</v>
+      </c>
+      <c r="I58" t="str">
+        <v>g</v>
+      </c>
+    </row>
+    <row r="59" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="H59" t="str">
+        <v>ww</v>
+      </c>
+      <c r="I59" t="str">
+        <v>h</v>
+      </c>
+    </row>
+    <row r="60" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="H60" t="str">
+        <v>ww</v>
+      </c>
+      <c r="I60" t="str">
+        <v>i</v>
       </c>
     </row>
   </sheetData>

--- a/CH-126 Transformation.xlsx
+++ b/CH-126 Transformation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D5929D-2DAA-4E85-A9CC-AF350DA4D324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B85592-3926-439C-9D1E-E47D2F1FA251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="43">
   <si>
     <t>Question</t>
   </si>
@@ -194,6 +194,9 @@
   <si>
     <t>You can use broadcasting to repeat a string across variables.</t>
   </si>
+  <si>
+    <t>Registration</t>
+  </si>
 </sst>
 </file>
 
@@ -525,6 +528,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -536,9 +542,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1414,15 +1417,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="E1" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
+      <c r="C1" s="26"/>
+      <c r="E1" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
       <c r="I1" s="7" t="s">
         <v>20</v>
       </c>
@@ -1825,10 +1828,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{677DA5E6-B2FD-4CAC-B9CE-06B03CBA8953}">
-  <dimension ref="A1:M27"/>
+  <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="B14" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1840,18 +1843,20 @@
     <col min="5" max="5" width="14.59765625" style="5" customWidth="1"/>
     <col min="6" max="6" width="11.5" customWidth="1"/>
     <col min="7" max="7" width="11.19921875" customWidth="1"/>
+    <col min="9" max="9" width="12.796875" customWidth="1"/>
+    <col min="10" max="10" width="12.69921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="E1" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
+      <c r="C1" s="26"/>
+      <c r="E1" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
       <c r="I1" s="7" t="s">
         <v>20</v>
       </c>
@@ -1886,7 +1891,7 @@
         <v>5</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="G3" s="16">
         <v>45293</v>
@@ -1955,7 +1960,7 @@
         <v>6</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="G6" s="16">
         <v>45298</v>
@@ -2015,7 +2020,7 @@
         <v>7</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="G9" s="16">
         <v>45300</v>
@@ -2069,7 +2074,7 @@
         <v>8</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="G12" s="16">
         <v>45310</v>
@@ -2118,7 +2123,7 @@
         <v>9</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="G15" s="16">
         <v>45294</v>
@@ -2140,7 +2145,7 @@
         <v>45296</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -2156,7 +2161,7 @@
       </c>
       <c r="M17" s="2"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -2165,14 +2170,14 @@
         <v>10</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="G18" s="16">
         <v>45297</v>
       </c>
       <c r="M18" s="2"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -2187,7 +2192,7 @@
         <v>45299</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -2203,13 +2208,13 @@
       </c>
       <c r="M20" s="2"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9" t="str" cm="1">
@@ -2228,9 +2233,32 @@
         <f ca="1"/>
         <v>2024/01/12</v>
       </c>
-      <c r="M22" s="2"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H22" t="str" cm="1">
+        <f t="array" ref="H22:H39">_xlfn.TOCOL(_xlfn.DROP(_xlfn.REDUCE("",REPT(C22:C27&amp;"|",3),_xlfn.LAMBDA(_xlpm.a,_xlpm.v,_xlfn.VSTACK(_xlpm.a,_xlfn.TEXTSPLIT(_xlpm.v,"|")))),1,-1))</f>
+        <v>O001</v>
+      </c>
+      <c r="I22" t="str" cm="1">
+        <f t="array" ref="I22:I39">_xlfn.REDUCE({"Registration";"Evaluation";"Approved"},_xlfn.SEQUENCE(5),_xlfn.LAMBDA(_xlpm.a,_xlpm.v,_xlfn.VSTACK(_xlpm.a,_xlfn.TAKE(_xlpm.a,3))))</f>
+        <v>Registration</v>
+      </c>
+      <c r="J22" s="16" cm="1">
+        <f t="array" aca="1" ref="J22:J39" ca="1">_xlfn.TOCOL(D22:F27)+0</f>
+        <v>45293</v>
+      </c>
+      <c r="L22" t="b" cm="1">
+        <f t="array" aca="1" ref="L22:N39" ca="1">H22:J39=E3:G20</f>
+        <v>1</v>
+      </c>
+      <c r="M22" s="2" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="N22" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9" t="str">
@@ -2249,8 +2277,30 @@
         <f ca="1"/>
         <v>2024/01/15</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H23" t="str">
+        <v>O001</v>
+      </c>
+      <c r="I23" t="str">
+        <v>Evaluation</v>
+      </c>
+      <c r="J23" s="16">
+        <f ca="1"/>
+        <v>45301</v>
+      </c>
+      <c r="L23" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="M23" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="N23" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B24" s="9"/>
       <c r="C24" s="9" t="str">
         <f ca="1"/>
@@ -2268,8 +2318,30 @@
         <f ca="1"/>
         <v>2024/01/23</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H24" t="str">
+        <v>O001</v>
+      </c>
+      <c r="I24" t="str">
+        <v>Approved</v>
+      </c>
+      <c r="J24" s="16">
+        <f ca="1"/>
+        <v>45303</v>
+      </c>
+      <c r="L24" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="M24" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="N24" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B25" s="9"/>
       <c r="C25" s="9" t="str">
         <f ca="1"/>
@@ -2287,8 +2359,30 @@
         <f ca="1"/>
         <v>2024/01/24</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H25" t="str">
+        <v>O002</v>
+      </c>
+      <c r="I25" t="str">
+        <v>Registration</v>
+      </c>
+      <c r="J25" s="16">
+        <f ca="1"/>
+        <v>45298</v>
+      </c>
+      <c r="L25" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="M25" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="N25" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B26" s="9"/>
       <c r="C26" s="9" t="str">
         <f ca="1"/>
@@ -2306,8 +2400,30 @@
         <f ca="1"/>
         <v>2024/01/22</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H26" t="str">
+        <v>O002</v>
+      </c>
+      <c r="I26" t="str">
+        <v>Evaluation</v>
+      </c>
+      <c r="J26" s="16">
+        <f ca="1"/>
+        <v>45304</v>
+      </c>
+      <c r="L26" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="M26" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="N26" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C27" s="9" t="str">
         <f ca="1"/>
         <v>O006</v>
@@ -2323,6 +2439,316 @@
       <c r="F27" s="9" t="str">
         <f ca="1"/>
         <v>2024/01/14</v>
+      </c>
+      <c r="H27" t="str">
+        <v>O002</v>
+      </c>
+      <c r="I27" t="str">
+        <v>Approved</v>
+      </c>
+      <c r="J27" s="16">
+        <f ca="1"/>
+        <v>45306</v>
+      </c>
+      <c r="L27" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="M27" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="N27" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H28" t="str">
+        <v>O003</v>
+      </c>
+      <c r="I28" t="str">
+        <v>Registration</v>
+      </c>
+      <c r="J28" s="16">
+        <f ca="1"/>
+        <v>45300</v>
+      </c>
+      <c r="L28" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="M28" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="N28" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H29" t="str">
+        <v>O003</v>
+      </c>
+      <c r="I29" t="str">
+        <v>Evaluation</v>
+      </c>
+      <c r="J29" s="16">
+        <f ca="1"/>
+        <v>45307</v>
+      </c>
+      <c r="L29" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="M29" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="N29" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H30" t="str">
+        <v>O003</v>
+      </c>
+      <c r="I30" t="str">
+        <v>Approved</v>
+      </c>
+      <c r="J30" s="16">
+        <f ca="1"/>
+        <v>45314</v>
+      </c>
+      <c r="L30" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="M30" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="N30" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H31" t="str">
+        <v>O004</v>
+      </c>
+      <c r="I31" t="str">
+        <v>Registration</v>
+      </c>
+      <c r="J31" s="16">
+        <f ca="1"/>
+        <v>45310</v>
+      </c>
+      <c r="L31" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="M31" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="N31" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H32" t="str">
+        <v>O004</v>
+      </c>
+      <c r="I32" t="str">
+        <v>Evaluation</v>
+      </c>
+      <c r="J32" s="16">
+        <f ca="1"/>
+        <v>45312</v>
+      </c>
+      <c r="L32" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="M32" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="N32" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H33" t="str">
+        <v>O004</v>
+      </c>
+      <c r="I33" t="str">
+        <v>Approved</v>
+      </c>
+      <c r="J33" s="16">
+        <f ca="1"/>
+        <v>45315</v>
+      </c>
+      <c r="L33" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="M33" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="N33" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H34" t="str">
+        <v>O005</v>
+      </c>
+      <c r="I34" t="str">
+        <v>Registration</v>
+      </c>
+      <c r="J34" s="16">
+        <f ca="1"/>
+        <v>45294</v>
+      </c>
+      <c r="L34" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="M34" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="N34" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H35" t="str">
+        <v>O005</v>
+      </c>
+      <c r="I35" t="str">
+        <v>Evaluation</v>
+      </c>
+      <c r="J35" s="16">
+        <f ca="1"/>
+        <v>45296</v>
+      </c>
+      <c r="L35" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="M35" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="N35" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H36" t="str">
+        <v>O005</v>
+      </c>
+      <c r="I36" t="str">
+        <v>Approved</v>
+      </c>
+      <c r="J36" s="16">
+        <f ca="1"/>
+        <v>45313</v>
+      </c>
+      <c r="L36" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="M36" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="N36" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H37" t="str">
+        <v>O006</v>
+      </c>
+      <c r="I37" t="str">
+        <v>Registration</v>
+      </c>
+      <c r="J37" s="16">
+        <f ca="1"/>
+        <v>45297</v>
+      </c>
+      <c r="L37" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="M37" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="N37" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H38" t="str">
+        <v>O006</v>
+      </c>
+      <c r="I38" t="str">
+        <v>Evaluation</v>
+      </c>
+      <c r="J38" s="16">
+        <f ca="1"/>
+        <v>45299</v>
+      </c>
+      <c r="L38" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="M38" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="N38" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H39" t="str">
+        <v>O006</v>
+      </c>
+      <c r="I39" t="str">
+        <v>Approved</v>
+      </c>
+      <c r="J39" s="19">
+        <f ca="1"/>
+        <v>45305</v>
+      </c>
+      <c r="L39" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="M39" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="N39" t="b">
+        <f ca="1"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2339,8 +2765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F5EC0EF-4DDC-432E-8A0C-098C1F991CDC}">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView topLeftCell="C24" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView topLeftCell="C17" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2355,15 +2781,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="E1" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
+      <c r="C1" s="26"/>
+      <c r="E1" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
       <c r="I1" s="7" t="s">
         <v>20</v>
       </c>
@@ -2959,8 +3385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BB906E4-F4ED-4118-9939-02F75E883835}">
   <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B40" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2976,15 +3402,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="E1" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
+      <c r="C1" s="26"/>
+      <c r="E1" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
       <c r="I1" s="7" t="s">
         <v>20</v>
       </c>
@@ -3646,7 +4072,7 @@
       </c>
     </row>
     <row r="42" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B42" s="28" t="s">
+      <c r="B42" s="24" t="s">
         <v>38</v>
       </c>
       <c r="J42" t="s">

--- a/CH-126 Transformation.xlsx
+++ b/CH-126 Transformation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B85592-3926-439C-9D1E-E47D2F1FA251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC8715AD-4052-4111-8C6D-92C4A8591716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1828,10 +1828,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{677DA5E6-B2FD-4CAC-B9CE-06B03CBA8953}">
-  <dimension ref="A1:N39"/>
+  <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B14" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="B24" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2512,6 +2512,10 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C30" t="str" cm="1">
+        <f t="array" aca="1" ref="C30:C47" ca="1">_xlfn.TOCOL(_xlfn.DROP(_xlfn.REDUCE("",C22:C27,_xlfn.LAMBDA(_xlpm.a,_xlpm.v,_xlfn.VSTACK(_xlpm.a,MID(REPT(_xlpm.v,3),{1,5,9},4)))),1))</f>
+        <v>O001</v>
+      </c>
       <c r="H30" t="str">
         <v>O003</v>
       </c>
@@ -2536,6 +2540,10 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C31" t="str">
+        <f ca="1"/>
+        <v>O001</v>
+      </c>
       <c r="H31" t="str">
         <v>O004</v>
       </c>
@@ -2560,6 +2568,10 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C32" t="str">
+        <f ca="1"/>
+        <v>O001</v>
+      </c>
       <c r="H32" t="str">
         <v>O004</v>
       </c>
@@ -2583,7 +2595,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C33" t="str">
+        <f ca="1"/>
+        <v>O002</v>
+      </c>
       <c r="H33" t="str">
         <v>O004</v>
       </c>
@@ -2607,7 +2623,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C34" t="str">
+        <f ca="1"/>
+        <v>O002</v>
+      </c>
       <c r="H34" t="str">
         <v>O005</v>
       </c>
@@ -2631,7 +2651,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C35" t="str">
+        <f ca="1"/>
+        <v>O002</v>
+      </c>
       <c r="H35" t="str">
         <v>O005</v>
       </c>
@@ -2655,7 +2679,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C36" t="str">
+        <f ca="1"/>
+        <v>O003</v>
+      </c>
       <c r="H36" t="str">
         <v>O005</v>
       </c>
@@ -2679,7 +2707,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C37" t="str">
+        <f ca="1"/>
+        <v>O003</v>
+      </c>
       <c r="H37" t="str">
         <v>O006</v>
       </c>
@@ -2703,7 +2735,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C38" t="str">
+        <f ca="1"/>
+        <v>O003</v>
+      </c>
       <c r="H38" t="str">
         <v>O006</v>
       </c>
@@ -2727,7 +2763,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C39" t="str">
+        <f ca="1"/>
+        <v>O004</v>
+      </c>
       <c r="H39" t="str">
         <v>O006</v>
       </c>
@@ -2749,6 +2789,54 @@
       <c r="N39" t="b">
         <f ca="1"/>
         <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C40" t="str">
+        <f ca="1"/>
+        <v>O004</v>
+      </c>
+    </row>
+    <row r="41" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C41" t="str">
+        <f ca="1"/>
+        <v>O004</v>
+      </c>
+    </row>
+    <row r="42" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C42" t="str">
+        <f ca="1"/>
+        <v>O005</v>
+      </c>
+    </row>
+    <row r="43" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C43" t="str">
+        <f ca="1"/>
+        <v>O005</v>
+      </c>
+    </row>
+    <row r="44" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C44" t="str">
+        <f ca="1"/>
+        <v>O005</v>
+      </c>
+    </row>
+    <row r="45" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C45" t="str">
+        <f ca="1"/>
+        <v>O006</v>
+      </c>
+    </row>
+    <row r="46" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C46" t="str">
+        <f ca="1"/>
+        <v>O006</v>
+      </c>
+    </row>
+    <row r="47" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C47" t="str">
+        <f ca="1"/>
+        <v>O006</v>
       </c>
     </row>
   </sheetData>

--- a/CH-126 Transformation.xlsx
+++ b/CH-126 Transformation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC8715AD-4052-4111-8C6D-92C4A8591716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD48376F-3FD8-4BE6-A953-EFD09474257A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="45">
   <si>
     <t>Question</t>
   </si>
@@ -196,6 +196,12 @@
   </si>
   <si>
     <t>Registration</t>
+  </si>
+  <si>
+    <t>Repeat command</t>
+  </si>
+  <si>
+    <t>Stack command</t>
   </si>
 </sst>
 </file>
@@ -1831,7 +1837,7 @@
   <dimension ref="A1:N47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B24" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2213,6 +2219,9 @@
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
+      <c r="I21" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
@@ -2515,6 +2524,9 @@
       <c r="C30" t="str" cm="1">
         <f t="array" aca="1" ref="C30:C47" ca="1">_xlfn.TOCOL(_xlfn.DROP(_xlfn.REDUCE("",C22:C27,_xlfn.LAMBDA(_xlpm.a,_xlpm.v,_xlfn.VSTACK(_xlpm.a,MID(REPT(_xlpm.v,3),{1,5,9},4)))),1))</f>
         <v>O001</v>
+      </c>
+      <c r="D30" t="s">
+        <v>44</v>
       </c>
       <c r="H30" t="str">
         <v>O003</v>

--- a/CH-126 Transformation.xlsx
+++ b/CH-126 Transformation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD48376F-3FD8-4BE6-A953-EFD09474257A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A054377-778B-4237-906F-ABA853EC17A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1837,7 +1837,7 @@
   <dimension ref="A1:N47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B24" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
